--- a/data/Power_plants_Ni.xlsx
+++ b/data/Power_plants_Ni.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E841F2D-D26A-4EC5-9BA3-29931CC2ECC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EFA5F8-EBAC-4C43-9E1F-5BE4EBCC2A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="27645" windowHeight="16440" tabRatio="840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="28110" windowHeight="16440" tabRatio="840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="extendedNL_updated" sheetId="13" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="44">
   <si>
     <t>Technology</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t xml:space="preserve">MANUALLY CHANGE COFIRING biomass to </t>
+  </si>
+  <si>
+    <t>Biomass_CHP_wood_pellets_DH for biomass cofiring</t>
   </si>
 </sst>
 </file>
@@ -758,14 +761,14 @@
   <dimension ref="A1:W419"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
+      <pane ySplit="1" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B250" sqref="B250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.26953125" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
@@ -820,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D2" s="1">
         <v>1994</v>
@@ -859,10 +862,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D3" s="1">
         <v>2027</v>
@@ -15702,7 +15705,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15743,6 +15746,9 @@
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
